--- a/AAII_Financials/Yearly/BLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BLFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>BLFY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -667,7 +667,8 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1482,22 +1483,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>193400</v>
+      </c>
+      <c r="E41" s="3">
         <v>316400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>124000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1509,22 +1510,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E42" s="3">
         <v>16900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>15400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>9100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>9900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8500</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1671,22 +1672,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E48" s="3">
         <v>44400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>33000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>33500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34900</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1697,11 +1698,11 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>15500</v>
@@ -1712,8 +1713,8 @@
       <c r="H49" s="3">
         <v>15500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>15500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1779,11 +1780,11 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>5300</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
@@ -1793,8 +1794,8 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1833,22 +1834,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1914200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1942500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1854100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1696000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1684100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1547800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1940,13 +1941,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E59" s="3">
         <v>25500</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1994,13 +1995,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E61" s="3">
         <v>10800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2020,14 +2021,14 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1900</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2129,22 +2130,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1484700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1736900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1616500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1470600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1463400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1333000</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2277,13 +2278,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>169500</v>
+      </c>
+      <c r="E72" s="3">
         <v>205800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>237300</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2385,22 +2386,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>429500</v>
+      </c>
+      <c r="E76" s="3">
         <v>205600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>237600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>225400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>220600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>214700</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2986,8 +2987,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/BLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BLFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>BLFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,65 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43220</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42855</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42490</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E8" s="3">
         <v>61600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>64800</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -734,9 +736,12 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -761,9 +766,12 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -788,9 +796,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -802,8 +813,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -828,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -855,9 +870,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -882,9 +900,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -909,9 +930,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -920,20 +944,21 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E17" s="3">
         <v>25100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23200</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -946,21 +971,24 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E18" s="3">
         <v>36500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>41700</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,9 +1001,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -987,20 +1018,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-75900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-34300</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1013,21 +1045,24 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-37400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1040,9 +1075,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1067,63 +1105,72 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-39400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9300</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3200</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1148,63 +1195,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6200</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6200</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1229,9 +1285,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1256,9 +1315,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1283,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1310,21 +1375,24 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E32" s="3">
         <v>75900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>34300</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1337,36 +1405,42 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6200</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1391,68 +1465,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6200</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43220</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42855</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42490</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1464,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1477,8 +1561,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1503,9 +1588,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1530,9 +1618,12 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1557,9 +1648,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1584,9 +1678,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1611,9 +1708,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1638,9 +1738,12 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1665,9 +1768,12 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1692,9 +1798,12 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1719,9 +1828,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1746,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1773,9 +1888,12 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1800,9 +1918,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1827,9 +1948,12 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1854,9 +1978,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1868,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1881,8 +2009,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1907,9 +2036,12 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1934,9 +2066,12 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -1961,9 +2096,12 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1988,9 +2126,12 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2015,9 +2156,12 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2042,9 +2186,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2069,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2123,9 +2276,12 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2150,9 +2306,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2164,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2190,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2217,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2244,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2271,9 +2440,12 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2298,9 +2470,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2325,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2352,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2379,9 +2560,12 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2406,9 +2590,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2433,68 +2620,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43220</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42855</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42490</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6200</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2506,19 +2702,20 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>1900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2532,9 +2729,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2559,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2586,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2613,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2640,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2667,21 +2879,24 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5400</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,9 +2909,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2708,20 +2926,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,9 +2953,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2761,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2788,21 +3013,24 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-105300</v>
+      </c>
+      <c r="E94" s="3">
         <v>101400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-57700</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,9 +3043,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2829,8 +3060,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2855,9 +3087,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2882,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2909,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2936,21 +3177,24 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>92300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>141900</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,9 +3207,12 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2987,24 +3234,27 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="E102" s="3">
         <v>192400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>89600</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3017,7 +3267,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BLFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>BLFY</t>
   </si>
@@ -1055,13 +1055,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-24400</v>
+        <v>-24800</v>
       </c>
       <c r="E21" s="3">
-        <v>-37400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>9200</v>
+        <v>-37500</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -2709,13 +2709,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
-        <v>1900</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2889,13 +2889,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-14100</v>
+        <v>-1300</v>
       </c>
       <c r="E89" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F89" s="3">
         <v>5400</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2933,13 +2933,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11900</v>
+        <v>-7300</v>
       </c>
       <c r="E91" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="F91" s="3">
         <v>-2200</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3023,13 +3023,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-105300</v>
+        <v>101400</v>
       </c>
       <c r="E94" s="3">
-        <v>101400</v>
-      </c>
-      <c r="F94" s="3">
         <v>-57700</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3187,13 +3187,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3500</v>
+        <v>92300</v>
       </c>
       <c r="E100" s="3">
-        <v>92300</v>
-      </c>
-      <c r="F100" s="3">
         <v>141900</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3234,8 +3234,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3247,13 +3247,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-123000</v>
+        <v>192400</v>
       </c>
       <c r="E102" s="3">
-        <v>192400</v>
-      </c>
-      <c r="F102" s="3">
         <v>89600</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BLFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>BLFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,71 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43220</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42855</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42490</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E8" s="3">
         <v>56100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>61600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>64800</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,9 +742,12 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,9 +775,12 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,9 +808,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,9 +889,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -903,9 +922,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -933,9 +955,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,23 +970,24 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E17" s="3">
         <v>10600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23200</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -974,24 +1000,27 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E18" s="3">
         <v>45500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>36500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>41700</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,9 +1033,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,23 +1051,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-72200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-75900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-34300</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1048,23 +1081,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-24800</v>
+        <v>5400</v>
       </c>
       <c r="E21" s="3">
-        <v>-37500</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-24400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>9200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1078,9 +1114,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1108,69 +1147,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-39400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9300</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>9600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6200</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6200</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,24 +1444,27 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E32" s="3">
         <v>72200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>75900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>34300</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1408,39 +1477,45 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6200</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6200</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43220</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42855</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42490</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,68 +1647,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E41" s="3">
         <v>193400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>316400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>124000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E42" s="3">
         <v>10200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>16900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>15400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>9100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8500</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1651,9 +1743,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1681,9 +1776,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1711,9 +1809,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1741,9 +1842,12 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1771,50 +1875,56 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E48" s="3">
         <v>53600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>33000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>33500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F49" s="3">
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>15500</v>
@@ -1825,15 +1935,18 @@
       <c r="I49" s="3">
         <v>15500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>15500</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,21 +2007,24 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>5300</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -1915,15 +2034,18 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2043300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1914200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1942500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1854100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1696000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1684100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1547800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,8 +2139,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2039,9 +2169,12 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2069,23 +2202,26 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E59" s="3">
         <v>26700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25500</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2099,9 +2235,12 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2129,24 +2268,27 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E61" s="3">
         <v>9600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2159,24 +2301,27 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,9 +2334,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1649600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1484700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1736900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1616500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1470600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1463400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1333000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,14 +2547,17 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>-12100</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,24 +2613,27 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>171800</v>
+      </c>
+      <c r="E72" s="3">
         <v>169500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>205800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>237300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,9 +2646,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>405800</v>
+      </c>
+      <c r="E76" s="3">
         <v>429500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>205600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>237600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>225400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>220600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>214700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43220</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42855</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42490</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6200</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,23 +2900,24 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2930,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,24 +3095,27 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>5400</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2912,9 +3128,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,23 +3146,24 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2956,9 +3176,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,24 +3242,27 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-306200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-105300</v>
+      </c>
+      <c r="F94" s="3">
         <v>101400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-57700</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3046,9 +3275,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3293,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,24 +3422,27 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>151200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F100" s="3">
         <v>92300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>141900</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,9 +3455,12 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3234,30 +3482,33 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-152300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="F102" s="3">
         <v>192400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>89600</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3270,7 +3521,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
